--- a/Gemasolar/layout.xlsx
+++ b/Gemasolar/layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sth\Desktop\2022年光热太阳能仿真与建模\太阳能镜场数据整理\Gemasolar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BE29A9-54D2-4C9F-85F4-923100806E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312688A9-563D-4C1D-BAF0-E9CC4CD10112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,20 +27,23 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>heliostat id</t>
+    <t>Heliostat Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>x</t>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>y</t>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,6 +53,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -76,9 +88,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -363,20 +378,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2651"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
-      <selection sqref="A1:C2651"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
